--- a/src/test/resources/arquivo_usuario/planilha_sem_fone.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha_sem_fone.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t xml:space="preserve">NIVEL/CANAL</t>
   </si>
   <si>
     <t xml:space="preserve">CARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTAMENTO</t>
   </si>
   <si>
     <t xml:space="preserve">NOME</t>
@@ -50,10 +53,16 @@
     <t xml:space="preserve">VENDEDOR</t>
   </si>
   <si>
+    <t xml:space="preserve">AGENTE_AUTORIZADO   </t>
+  </si>
+  <si>
     <t xml:space="preserve">ADAIDE SAMANTA DA SILVA SANTOS</t>
   </si>
   <si>
     <t xml:space="preserve">n.adaide.santos@aec.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   COMERCIAL </t>
   </si>
   <si>
     <t xml:space="preserve">ADENILDO PEREIRA OLIVEIRA</t>
@@ -66,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">n.adriana.lbezerra@aec.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   COMERCIAL     </t>
   </si>
   <si>
     <t xml:space="preserve">ALAN DAVISON BARROS SILVA</t>
@@ -179,7 +191,7 @@
     <numFmt numFmtId="165" formatCode="000000000\-00"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -205,6 +217,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -286,11 +306,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +339,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,7 +351,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,7 +363,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -451,22 +475,23 @@
   <dimension ref="1:44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="2" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.9234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -479,16 +504,18 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0"/>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -1508,24 +1535,26 @@
     </row>
     <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="n">
         <v>10604168403</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="G2" s="11" t="n">
         <v>34218</v>
       </c>
-      <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -2545,22 +2574,24 @@
     </row>
     <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="n">
         <v>31944</v>
       </c>
-      <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -3580,24 +3611,26 @@
     </row>
     <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="n">
         <v>70159931479</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>13</v>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="G4" s="14" t="n">
         <v>34436</v>
       </c>
-      <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -4617,24 +4650,26 @@
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="n">
         <v>2917600403</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="G5" s="14" t="n">
         <v>27678</v>
       </c>
-      <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
@@ -5654,24 +5689,26 @@
     </row>
     <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="n">
         <v>9249138431</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>17</v>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <v>32373</v>
       </c>
-      <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
@@ -6691,24 +6728,26 @@
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12" t="n">
         <v>12532343451</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
+      <c r="F7" s="13" t="s">
+        <v>23</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="G7" s="14" t="n">
         <v>35926</v>
       </c>
-      <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
@@ -7728,24 +7767,26 @@
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="n">
         <v>11523845465</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
+      <c r="F8" s="13" t="s">
+        <v>25</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="G8" s="14" t="n">
         <v>34705</v>
       </c>
-      <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
@@ -8765,24 +8806,26 @@
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="n">
         <v>1581072414</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>23</v>
+      <c r="F9" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="G9" s="14" t="n">
         <v>32575</v>
       </c>
-      <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
@@ -9802,24 +9845,26 @@
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="12" t="n">
         <v>10161857400</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>25</v>
+      <c r="F10" s="13" t="s">
+        <v>29</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="G10" s="14" t="n">
         <v>33127</v>
       </c>
-      <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
@@ -10839,24 +10884,26 @@
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12" t="n">
         <v>10144034727</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>27</v>
+      <c r="F11" s="13" t="s">
+        <v>31</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="G11" s="14" t="n">
         <v>31722</v>
       </c>
-      <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -11876,24 +11923,26 @@
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="12" t="n">
         <v>5985368416</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>29</v>
+      <c r="F12" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="G12" s="14" t="n">
         <v>31827</v>
       </c>
-      <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -12913,24 +12962,26 @@
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="12" t="n">
         <v>70028986474</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>31</v>
+      <c r="F13" s="13" t="s">
+        <v>35</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="G13" s="14" t="n">
         <v>34532</v>
       </c>
-      <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -13950,24 +14001,26 @@
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="12" t="n">
         <v>6920673452</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>33</v>
+      <c r="F14" s="13" t="s">
+        <v>37</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="G14" s="14" t="n">
         <v>31751</v>
       </c>
-      <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -14987,24 +15040,26 @@
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="12" t="n">
         <v>2131</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>35</v>
+      <c r="F15" s="13" t="s">
+        <v>39</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="G15" s="14" t="n">
         <v>30749</v>
       </c>
-      <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -16024,24 +16079,26 @@
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="12" t="n">
         <v>9460873421</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>37</v>
+      <c r="F16" s="13" t="s">
+        <v>41</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="G16" s="14" t="n">
         <v>34055</v>
       </c>
-      <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
@@ -17062,11 +17119,10 @@
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
-      <c r="H17" s="0"/>
+      <c r="G17" s="14"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
@@ -18087,11 +18143,10 @@
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
-      <c r="H18" s="0"/>
+      <c r="G18" s="14"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
@@ -19112,11 +19167,10 @@
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
-      <c r="H19" s="0"/>
+      <c r="G19" s="14"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -20137,11 +20191,10 @@
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
-      <c r="H20" s="0"/>
+      <c r="G20" s="14"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -21162,11 +21215,10 @@
     <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
-      <c r="H21" s="0"/>
+      <c r="G21" s="14"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -22187,11 +22239,10 @@
     <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
-      <c r="H22" s="0"/>
+      <c r="G22" s="14"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -23212,11 +23263,10 @@
     <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
-      <c r="H23" s="0"/>
+      <c r="G23" s="14"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -24237,11 +24287,10 @@
     <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="H24" s="0"/>
+      <c r="G24" s="14"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -25262,11 +25311,10 @@
     <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="H25" s="0"/>
+      <c r="G25" s="14"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -26287,11 +26335,10 @@
     <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
-      <c r="H26" s="0"/>
+      <c r="G26" s="14"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
@@ -27312,11 +27359,10 @@
     <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="H27" s="0"/>
+      <c r="G27" s="14"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
@@ -28337,11 +28383,10 @@
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
-      <c r="H28" s="0"/>
+      <c r="G28" s="14"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -29362,11 +29407,10 @@
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="H29" s="0"/>
+      <c r="G29" s="14"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -30387,11 +30431,10 @@
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
-      <c r="H30" s="0"/>
+      <c r="G30" s="14"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -31412,11 +31455,10 @@
     <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
-      <c r="H31" s="0"/>
+      <c r="G31" s="14"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
@@ -32437,11 +32479,10 @@
     <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="11"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
-      <c r="H32" s="0"/>
+      <c r="G32" s="14"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -33462,11 +33503,10 @@
     <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="11"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
-      <c r="H33" s="0"/>
+      <c r="G33" s="14"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -34487,11 +34527,10 @@
     <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="11"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
-      <c r="H34" s="0"/>
+      <c r="G34" s="14"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -35512,11 +35551,10 @@
     <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="11"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
-      <c r="H35" s="0"/>
+      <c r="G35" s="14"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -36537,11 +36575,10 @@
     <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
-      <c r="H36" s="0"/>
+      <c r="G36" s="14"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -37562,11 +37599,10 @@
     <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="11"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
-      <c r="H37" s="0"/>
+      <c r="G37" s="14"/>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
@@ -38587,11 +38623,10 @@
     <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="11"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
-      <c r="H38" s="0"/>
+      <c r="G38" s="14"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -39612,11 +39647,10 @@
     <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="11"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
-      <c r="H39" s="0"/>
+      <c r="G39" s="14"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -40637,11 +40671,10 @@
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="11"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
-      <c r="H40" s="0"/>
+      <c r="G40" s="14"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -41662,11 +41695,10 @@
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="11"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
-      <c r="H41" s="0"/>
+      <c r="G41" s="14"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -42687,11 +42719,10 @@
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
-      <c r="H42" s="0"/>
+      <c r="G42" s="14"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -43712,11 +43743,10 @@
     <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="11"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
-      <c r="H43" s="0"/>
+      <c r="G43" s="14"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -44737,11 +44767,10 @@
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="11"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
-      <c r="H44" s="0"/>
+      <c r="G44" s="14"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -45760,12 +45789,12 @@
       <c r="AMJ44" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D563">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D563">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
@@ -45773,7 +45802,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D563">
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
@@ -45781,12 +45810,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D563">
     <cfRule type="duplicateValues" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D563">
     <cfRule type="duplicateValues" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>0</formula>
     </cfRule>
@@ -45794,17 +45823,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D563">
     <cfRule type="duplicateValues" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D563">
     <cfRule type="duplicateValues" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D563">
     <cfRule type="duplicateValues" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
@@ -45812,7 +45841,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D349">
     <cfRule type="duplicateValues" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>0</formula>
     </cfRule>
@@ -45820,12 +45849,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D349">
     <cfRule type="duplicateValues" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D349">
     <cfRule type="duplicateValues" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>0</formula>
     </cfRule>
@@ -45833,12 +45862,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D349">
     <cfRule type="duplicateValues" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D349">
     <cfRule type="duplicateValues" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
@@ -45846,17 +45875,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D349">
     <cfRule type="duplicateValues" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D349">
     <cfRule type="duplicateValues" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D349">
     <cfRule type="duplicateValues" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>0</formula>
     </cfRule>
@@ -45887,67 +45916,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
